--- a/biology/Médecine/Fonds_français_Muskoka/Fonds_français_Muskoka.xlsx
+++ b/biology/Médecine/Fonds_français_Muskoka/Fonds_français_Muskoka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonds_fran%C3%A7ais_Muskoka</t>
+          <t>Fonds_français_Muskoka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fonds français Muskoka[1] a pour objectif de réduire la mortalité maternelle[2],[3], néonatale et infantile et d'accélérer l'atteinte des objectifs du millénaire pour le développement (OMD) 4 et 5.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fonds français Muskoka a pour objectif de réduire la mortalité maternelle néonatale et infantile et d'accélérer l'atteinte des objectifs du millénaire pour le développement (OMD) 4 et 5.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonds_fran%C3%A7ais_Muskoka</t>
+          <t>Fonds_français_Muskoka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À travers le Fonds français Muskoka, créé à la suite du sommet du G8 tenu à Muskoka au Canada en 2010, la France s'est engagée à fournir une contribution complémentaire totale de 500 millions d'euros jusqu'en 2015, en faveur de la santé des femmes et des enfants, et de la promotion des droits sexuels et reproductifs.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonds_fran%C3%A7ais_Muskoka</t>
+          <t>Fonds_français_Muskoka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fonds français Muskoka est mis en œuvre par l’Agence française de développement (AFD) et par quatre organismes des Nations unies - l'Organisation mondiale de la Santé[4], Le Fonds des Nations unies pour l'enfance (UNICEF)[5], Le Fonds des Nations unies pour la population (UNFPA)[6] et ONU Femmes[7]. 
-95 millions d'euros sont investis à travers les quatre organisations onusiennes[8],[9], qui sont actives dans le cadre du Fonds français Muskoka, dans dix pays d'Afrique de l'Ouest et du Centre (Bénin, Burkina Faso, Côte d'Ivoire, Guinée, Mali, Niger, République démocratique du Congo, Sénégal[10], Tchad, Togo) et à Haïti.
-Ces quatre agences de l'ONU mettent en œuvre sur le terrain des interventions stratégiques[11] dites à haut impact dans quatre domaines :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fonds français Muskoka est mis en œuvre par l’Agence française de développement (AFD) et par quatre organismes des Nations unies - l'Organisation mondiale de la Santé, Le Fonds des Nations unies pour l'enfance (UNICEF), Le Fonds des Nations unies pour la population (UNFPA) et ONU Femmes. 
+95 millions d'euros sont investis à travers les quatre organisations onusiennes qui sont actives dans le cadre du Fonds français Muskoka, dans dix pays d'Afrique de l'Ouest et du Centre (Bénin, Burkina Faso, Côte d'Ivoire, Guinée, Mali, Niger, République démocratique du Congo, Sénégal, Tchad, Togo) et à Haïti.
+Ces quatre agences de l'ONU mettent en œuvre sur le terrain des interventions stratégiques dites à haut impact dans quatre domaines :
 Santé maternelle
 Santé infantile et néonatale
 Planification familiale
